--- a/data.xlsx
+++ b/data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="298">
   <si>
     <t xml:space="preserve">Number</t>
   </si>
@@ -45,16 +45,877 @@
     <t xml:space="preserve">hiabcLG1@</t>
   </si>
   <si>
-    <t xml:space="preserve">Michael Logan</t>
+    <t xml:space="preserve">Daniel Johnsen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnsen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hqseection@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbara Edwards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edwards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edwardsangus@irtc.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gary Ragsdale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ragsdale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gragsdale@netzero.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celestina Castillo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celestina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Castillo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">celestina.castillo@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elizabeth Martinez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elizabeth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martinez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elizabeth.martinez@comcast.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dennis Acosta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dennis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acosta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dennisa@mindspring.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Bembry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bembry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dbembry@centurytel.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grace Yip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grace.yip@aol.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alisa Hecht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hecht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">garbino@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel Bedil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bedil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dbedil@email.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linda Studer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Studer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lindastuder8@aol.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sara Cowan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cowan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anthony.cowan@peoplepc.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belkys Granados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belkys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Granados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">angels05b_n@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mike Blake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miblake@sbcglobal.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bobby Mcelwain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bobby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mcelwain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bmcelwain@gci.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Douglas Eckenrod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Douglas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eckenrod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">douglas.eckenrod@concentric.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benjamin Barbee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benjamin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">benjamin.barbee@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Bergmann</t>
   </si>
   <si>
     <t xml:space="preserve">Michael</t>
   </si>
   <si>
-    <t xml:space="preserve">Logan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mlogan@netzero.net</t>
+    <t xml:space="preserve">Bergmann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">michael.bergmann@aol.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gary Nishita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nishita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gnishita@aol.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niru Sheth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nirus@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gary Ung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gung@aol.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graciela Chavez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graciela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chavez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cgraciela23@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christina Nelson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nelson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">christina.nelson@worldnet.att.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calvin Smith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calvin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calvins@charter.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beth Somero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beth.somero@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brandon Davis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brandon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Davis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brandonmayav@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrea Fridly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fridly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">afridly@erols.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nick Gee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gaucinsv@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel Perkins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perkins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dcib12@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beau Kojima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kojima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beauk@cox.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darwin Winkler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darwin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winkler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cewatelinda@aol.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robin Tompkins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tompkins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gnzsr@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grace Hudson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hudson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ghudson@msn.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kou Xiong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xiong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">koux@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Ham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">michael.ham@aol.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bob Geaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bobgeaw@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Felipe Adame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Felipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fadame@bellsouth.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claire Thethird</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thethird</t>
+  </si>
+  <si>
+    <t xml:space="preserve">claire389@live.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danielle Radel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danielle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">danielle.radel@att.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bob Dole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bsmith8989@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charles Floto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cfloto@juno.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polly Esther</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esther</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pesther@msn.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fred Valazza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fred</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valazza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fred.valazza@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avelina Padua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avelina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Padua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apadua@charter.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patricia Pena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patricia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dyanapena@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Candyce Nakahara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Candyce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakahara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cnakahara@bellsouth.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darryl Nemer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darryl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nemer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dnemer@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claude Lodahl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lodahl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clodahl@cox.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorraine Ladevich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorraine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ladevich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lladevich@altavista.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bo Truong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Truong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">botruong2778@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victoria Williams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victoria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Williams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">myaray101@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cindy Miracle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cindy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miracle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chmiracle@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cornell Robinson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cornell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robinson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cornellr@aol.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frank Remmel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remmel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fremmel@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lilia Castaneda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lilia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Castaneda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lcastaneda1@bellsouth.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raffi Stambultsyan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raffi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stambultsyan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boylzy425@aol.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cathy Mcmurry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cathy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mcmurry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cathy.mcmurry@pacbell.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ginger Nichols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ginger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nichols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ginnygirl1974@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norma Riisma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riisma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">norma.riisma@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leona Willis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Willis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lwillis@comcast.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mila Quintal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quintal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quintal@gte.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brian Broderick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broderick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bbroderick@fuse.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giles Rebecca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rebecca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grebecca@latinmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consuelo Hermosillo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consuelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hermosillo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consuelo.hermosillo@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lori Nommsen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lori</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nommsen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nommsen@sbcglobal.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ernani Bautista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ernani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bautista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ernanib@netzero.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garrett Eggers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garrett</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eggers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geggers@onebox.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melinda Maldonado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melinda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maldonado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">melindamaldonado5678@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel Espinoza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espinoza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">daniel.espinoza@ameritrade.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sherry Kotvis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sherry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kotvis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chicagoskk1@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frank Dann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fdann@winnet-tech.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hayley Garcia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hayley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garcia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dimmples@garcia.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grady Mitchell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grady</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitchell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gradyogrady56@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedro Lopez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lopez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pedro@p-l-construction.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De Vin Wilkes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De Vin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wilkes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">devince007@yahoo.com</t>
   </si>
 </sst>
 </file>
@@ -96,19 +957,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -137,16 +991,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -350,67 +1196,1649 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="27.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="20.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="34.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>9542798571</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="A2" s="0" t="n">
+        <v>2193060040</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>4233586672</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>9296509281</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>6232838582</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>6027419712</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>4064810869</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>8605030622</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>5048629678</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>4402123666</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>6592481290</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>7323339284</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>4322097318</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>6202041633</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>4793222201</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>4172972289</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>3855427132</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>2243192502</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>8164007833</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>4482059570</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>2819059971</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>2102518402</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>9402977078</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>9702133969</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>2153916664</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>2252491578</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>7253185146</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>6105006692</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>3175169396</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>4065032238</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>9432216625</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>5593303526</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>7204534634</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>3103034095</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>6572179812</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>5712831376</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>9197863965</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>5202204813</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>8503689778</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>7193709867</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>6628639589</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>5598134081</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>8654041994</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>6507057056</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>3854618109</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>7076995800</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>2098898593</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>4144067867</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>2625059628</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>2062358799</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>6262273212</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>7253186393</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>6232123528</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>3033560909</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>2346500074</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>5042314937</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>3177408271</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>9105805871</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>4233835640</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>3862973431</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>7192092529</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <v>4082293742</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
+        <v>6152075191</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
+        <v>3346617427</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
+        <v>5612230298</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <v>6822466267</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
+        <v>6822462864</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
+        <v>4692644932</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="n">
+        <v>2132580995</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
+        <v>7162953543</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
+        <v>3472652018</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
+        <v>5054531276</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <v>5209219851</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
+        <v>9085903466</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
+        <v>9782289427</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="n">
+        <v>8602669541</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F76" s="0" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -991,8 +991,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1191,1539 +1199,1539 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="34.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="34.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="20.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>2193060040</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>8602669541</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>4233586672</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="0" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>8602669541</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>9296509281</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>6232838582</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="0" t="s">
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>6027419712</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="0" t="s">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>4064810869</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="0" t="s">
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>8605030622</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="0" t="s">
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>5048629678</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="0" t="s">
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>4402123666</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="0" t="s">
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>6592481290</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="0" t="s">
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>7323339284</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="0" t="s">
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>4322097318</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="0" t="s">
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>6202041633</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="0" t="s">
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>4793222201</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="0" t="s">
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>4172972289</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="0" t="s">
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>3855427132</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="0" t="s">
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>2243192502</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="0" t="s">
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>8164007833</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="0" t="s">
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F19" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>4482059570</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="0" t="s">
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="F20" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>2819059971</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="0" t="s">
+      <c r="B21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F21" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <v>2102518402</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="0" t="s">
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="F22" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="1" t="n">
         <v>9402977078</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="0" t="s">
+      <c r="B23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F23" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="1" t="n">
         <v>9702133969</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="0" t="s">
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="F24" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="1" t="n">
         <v>2153916664</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="0" t="s">
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="F25" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="1" t="n">
         <v>2252491578</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="0" t="s">
+      <c r="B26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="F26" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="1" t="n">
         <v>7253185146</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="0" t="s">
+      <c r="B27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="F27" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="1" t="n">
         <v>6105006692</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="0" t="s">
+      <c r="B28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="F28" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="1" t="n">
         <v>3175169396</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="0" t="s">
+      <c r="B29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="F29" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="1" t="n">
         <v>4065032238</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="0" t="s">
+      <c r="B30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E30" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="F30" s="1" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="1" t="n">
         <v>9432216625</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="0" t="s">
+      <c r="B31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="E31" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F31" s="0" t="s">
+      <c r="F31" s="1" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="1" t="n">
         <v>5593303526</v>
       </c>
-      <c r="B32" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="0" t="s">
+      <c r="B32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="E32" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F32" s="0" t="s">
+      <c r="F32" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="A33" s="1" t="n">
         <v>7204534634</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="0" t="s">
+      <c r="B33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="E33" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F33" s="0" t="s">
+      <c r="F33" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="A34" s="1" t="n">
         <v>3103034095</v>
       </c>
-      <c r="B34" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="0" t="s">
+      <c r="B34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E34" s="0" t="s">
+      <c r="E34" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F34" s="0" t="s">
+      <c r="F34" s="1" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+      <c r="A35" s="1" t="n">
         <v>6572179812</v>
       </c>
-      <c r="B35" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="0" t="s">
+      <c r="B35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="E35" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F35" s="0" t="s">
+      <c r="F35" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+      <c r="A36" s="1" t="n">
         <v>5712831376</v>
       </c>
-      <c r="B36" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="0" t="s">
+      <c r="B36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E36" s="0" t="s">
+      <c r="E36" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F36" s="0" t="s">
+      <c r="F36" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+      <c r="A37" s="1" t="n">
         <v>9197863965</v>
       </c>
-      <c r="B37" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="0" t="s">
+      <c r="B37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E37" s="0" t="s">
+      <c r="E37" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F37" s="0" t="s">
+      <c r="F37" s="1" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+      <c r="A38" s="1" t="n">
         <v>5202204813</v>
       </c>
-      <c r="B38" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="0" t="s">
+      <c r="B38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="E38" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F38" s="0" t="s">
+      <c r="F38" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+      <c r="A39" s="1" t="n">
         <v>8503689778</v>
       </c>
-      <c r="B39" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="0" t="s">
+      <c r="B39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E39" s="0" t="s">
+      <c r="E39" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F39" s="0" t="s">
+      <c r="F39" s="1" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+      <c r="A40" s="1" t="n">
         <v>7193709867</v>
       </c>
-      <c r="B40" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="0" t="s">
+      <c r="B40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E40" s="0" t="s">
+      <c r="E40" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F40" s="0" t="s">
+      <c r="F40" s="1" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+      <c r="A41" s="1" t="n">
         <v>6628639589</v>
       </c>
-      <c r="B41" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="0" t="s">
+      <c r="B41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E41" s="0" t="s">
+      <c r="E41" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F41" s="0" t="s">
+      <c r="F41" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+      <c r="A42" s="1" t="n">
         <v>5598134081</v>
       </c>
-      <c r="B42" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="0" t="s">
+      <c r="B42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E42" s="0" t="s">
+      <c r="E42" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F42" s="0" t="s">
+      <c r="F42" s="1" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+      <c r="A43" s="1" t="n">
         <v>8654041994</v>
       </c>
-      <c r="B43" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="0" t="s">
+      <c r="B43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E43" s="0" t="s">
+      <c r="E43" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F43" s="0" t="s">
+      <c r="F43" s="1" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+      <c r="A44" s="1" t="n">
         <v>6507057056</v>
       </c>
-      <c r="B44" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="0" t="s">
+      <c r="B44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E44" s="0" t="s">
+      <c r="E44" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F44" s="0" t="s">
+      <c r="F44" s="1" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+      <c r="A45" s="1" t="n">
         <v>3854618109</v>
       </c>
-      <c r="B45" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="0" t="s">
+      <c r="B45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E45" s="0" t="s">
+      <c r="E45" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F45" s="0" t="s">
+      <c r="F45" s="1" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
+      <c r="A46" s="1" t="n">
         <v>7076995800</v>
       </c>
-      <c r="B46" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="0" t="s">
+      <c r="B46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E46" s="0" t="s">
+      <c r="E46" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F46" s="0" t="s">
+      <c r="F46" s="1" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
+      <c r="A47" s="1" t="n">
         <v>2098898593</v>
       </c>
-      <c r="B47" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="0" t="s">
+      <c r="B47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E47" s="0" t="s">
+      <c r="E47" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="F47" s="0" t="s">
+      <c r="F47" s="1" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
+      <c r="A48" s="1" t="n">
         <v>4144067867</v>
       </c>
-      <c r="B48" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="0" t="s">
+      <c r="B48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E48" s="0" t="s">
+      <c r="E48" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F48" s="0" t="s">
+      <c r="F48" s="1" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
+      <c r="A49" s="1" t="n">
         <v>2625059628</v>
       </c>
-      <c r="B49" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="0" t="s">
+      <c r="B49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E49" s="0" t="s">
+      <c r="E49" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F49" s="0" t="s">
+      <c r="F49" s="1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
+      <c r="A50" s="1" t="n">
         <v>2062358799</v>
       </c>
-      <c r="B50" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="0" t="s">
+      <c r="B50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D50" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E50" s="0" t="s">
+      <c r="E50" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F50" s="0" t="s">
+      <c r="F50" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
+      <c r="A51" s="1" t="n">
         <v>6262273212</v>
       </c>
-      <c r="B51" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="0" t="s">
+      <c r="B51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E51" s="0" t="s">
+      <c r="E51" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F51" s="0" t="s">
+      <c r="F51" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
+      <c r="A52" s="1" t="n">
         <v>7253186393</v>
       </c>
-      <c r="B52" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="0" t="s">
+      <c r="B52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D52" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E52" s="0" t="s">
+      <c r="E52" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F52" s="0" t="s">
+      <c r="F52" s="1" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
+      <c r="A53" s="1" t="n">
         <v>6232123528</v>
       </c>
-      <c r="B53" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="0" t="s">
+      <c r="B53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E53" s="0" t="s">
+      <c r="E53" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F53" s="0" t="s">
+      <c r="F53" s="1" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
+      <c r="A54" s="1" t="n">
         <v>3033560909</v>
       </c>
-      <c r="B54" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="0" t="s">
+      <c r="B54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E54" s="0" t="s">
+      <c r="E54" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="F54" s="0" t="s">
+      <c r="F54" s="1" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
+      <c r="A55" s="1" t="n">
         <v>2346500074</v>
       </c>
-      <c r="B55" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="0" t="s">
+      <c r="B55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E55" s="0" t="s">
+      <c r="E55" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F55" s="0" t="s">
+      <c r="F55" s="1" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
+      <c r="A56" s="1" t="n">
         <v>5042314937</v>
       </c>
-      <c r="B56" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="0" t="s">
+      <c r="B56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="D56" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E56" s="0" t="s">
+      <c r="E56" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F56" s="0" t="s">
+      <c r="F56" s="1" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
+      <c r="A57" s="1" t="n">
         <v>3177408271</v>
       </c>
-      <c r="B57" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="0" t="s">
+      <c r="B57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D57" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E57" s="0" t="s">
+      <c r="E57" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F57" s="0" t="s">
+      <c r="F57" s="1" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
+      <c r="A58" s="1" t="n">
         <v>9105805871</v>
       </c>
-      <c r="B58" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="0" t="s">
+      <c r="B58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="D58" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E58" s="0" t="s">
+      <c r="E58" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="F58" s="0" t="s">
+      <c r="F58" s="1" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
+      <c r="A59" s="1" t="n">
         <v>4233835640</v>
       </c>
-      <c r="B59" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="0" t="s">
+      <c r="B59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="D59" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E59" s="0" t="s">
+      <c r="E59" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F59" s="0" t="s">
+      <c r="F59" s="1" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
+      <c r="A60" s="1" t="n">
         <v>3862973431</v>
       </c>
-      <c r="B60" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="0" t="s">
+      <c r="B60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="D60" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E60" s="0" t="s">
+      <c r="E60" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F60" s="0" t="s">
+      <c r="F60" s="1" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
+      <c r="A61" s="1" t="n">
         <v>7192092529</v>
       </c>
-      <c r="B61" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="0" t="s">
+      <c r="B61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="D61" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E61" s="0" t="s">
+      <c r="E61" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F61" s="0" t="s">
+      <c r="F61" s="1" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
+      <c r="A62" s="1" t="n">
         <v>4082293742</v>
       </c>
-      <c r="B62" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" s="0" t="s">
+      <c r="B62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D62" s="0" t="s">
+      <c r="D62" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="E62" s="0" t="s">
+      <c r="E62" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F62" s="0" t="s">
+      <c r="F62" s="1" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
+      <c r="A63" s="1" t="n">
         <v>6152075191</v>
       </c>
-      <c r="B63" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" s="0" t="s">
+      <c r="B63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="D63" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="E63" s="0" t="s">
+      <c r="E63" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="F63" s="0" t="s">
+      <c r="F63" s="1" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
+      <c r="A64" s="1" t="n">
         <v>3346617427</v>
       </c>
-      <c r="B64" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" s="0" t="s">
+      <c r="B64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D64" s="0" t="s">
+      <c r="D64" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E64" s="0" t="s">
+      <c r="E64" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="F64" s="0" t="s">
+      <c r="F64" s="1" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
+      <c r="A65" s="1" t="n">
         <v>5612230298</v>
       </c>
-      <c r="B65" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" s="0" t="s">
+      <c r="B65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D65" s="0" t="s">
+      <c r="D65" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E65" s="0" t="s">
+      <c r="E65" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="F65" s="0" t="s">
+      <c r="F65" s="1" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
+      <c r="A66" s="1" t="n">
         <v>6822466267</v>
       </c>
-      <c r="B66" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C66" s="0" t="s">
+      <c r="B66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D66" s="0" t="s">
+      <c r="D66" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E66" s="0" t="s">
+      <c r="E66" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="F66" s="0" t="s">
+      <c r="F66" s="1" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
+      <c r="A67" s="1" t="n">
         <v>6822462864</v>
       </c>
-      <c r="B67" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67" s="0" t="s">
+      <c r="B67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D67" s="0" t="s">
+      <c r="D67" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E67" s="0" t="s">
+      <c r="E67" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="F67" s="0" t="s">
+      <c r="F67" s="1" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
+      <c r="A68" s="1" t="n">
         <v>4692644932</v>
       </c>
-      <c r="B68" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C68" s="0" t="s">
+      <c r="B68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D68" s="0" t="s">
+      <c r="D68" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E68" s="0" t="s">
+      <c r="E68" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F68" s="0" t="s">
+      <c r="F68" s="1" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="n">
+      <c r="A69" s="1" t="n">
         <v>2132580995</v>
       </c>
-      <c r="B69" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" s="0" t="s">
+      <c r="B69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D69" s="0" t="s">
+      <c r="D69" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E69" s="0" t="s">
+      <c r="E69" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="F69" s="0" t="s">
+      <c r="F69" s="1" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="n">
+      <c r="A70" s="1" t="n">
         <v>7162953543</v>
       </c>
-      <c r="B70" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C70" s="0" t="s">
+      <c r="B70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="D70" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E70" s="0" t="s">
+      <c r="E70" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="F70" s="0" t="s">
+      <c r="F70" s="1" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="n">
+      <c r="A71" s="1" t="n">
         <v>3472652018</v>
       </c>
-      <c r="B71" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" s="0" t="s">
+      <c r="B71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D71" s="0" t="s">
+      <c r="D71" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E71" s="0" t="s">
+      <c r="E71" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F71" s="0" t="s">
+      <c r="F71" s="1" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="n">
+      <c r="A72" s="1" t="n">
         <v>5054531276</v>
       </c>
-      <c r="B72" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72" s="0" t="s">
+      <c r="B72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D72" s="0" t="s">
+      <c r="D72" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E72" s="0" t="s">
+      <c r="E72" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="F72" s="0" t="s">
+      <c r="F72" s="1" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="n">
+      <c r="A73" s="1" t="n">
         <v>5209219851</v>
       </c>
-      <c r="B73" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C73" s="0" t="s">
+      <c r="B73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D73" s="0" t="s">
+      <c r="D73" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="E73" s="0" t="s">
+      <c r="E73" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="F73" s="0" t="s">
+      <c r="F73" s="1" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="n">
+      <c r="A74" s="1" t="n">
         <v>9085903466</v>
       </c>
-      <c r="B74" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74" s="0" t="s">
+      <c r="B74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D74" s="0" t="s">
+      <c r="D74" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="E74" s="0" t="s">
+      <c r="E74" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="F74" s="0" t="s">
+      <c r="F74" s="1" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="n">
+      <c r="A75" s="1" t="n">
         <v>9782289427</v>
       </c>
-      <c r="B75" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C75" s="0" t="s">
+      <c r="B75" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D75" s="0" t="s">
+      <c r="D75" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E75" s="0" t="s">
+      <c r="E75" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="F75" s="0" t="s">
+      <c r="F75" s="1" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="n">
+      <c r="A76" s="1" t="n">
         <v>8602669541</v>
       </c>
-      <c r="B76" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C76" s="0" t="s">
+      <c r="B76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D76" s="0" t="s">
+      <c r="D76" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="E76" s="0" t="s">
+      <c r="E76" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="F76" s="0" t="s">
+      <c r="F76" s="1" t="s">
         <v>297</v>
       </c>
     </row>
